--- a/11.09.23 tagesPlan.xlsx
+++ b/11.09.23 tagesPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="10656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Yves</t>
   </si>
   <si>
-    <t>AWS Kurs</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Petru Walter</t>
   </si>
   <si>
-    <t>Git, GitHub, Jenkins, Jira</t>
-  </si>
-  <si>
     <t>ISTQB 01.10.23</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>Jules</t>
   </si>
   <si>
-    <t xml:space="preserve"> Polarion, Gemini, Jira </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AWS, CI/CD, Git, GitHub</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -114,13 +102,98 @@
   </si>
   <si>
     <t>Krank</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Polarion, Gemini, Jira, Intake mit Kunde </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CI/CD, Git, GitHub</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS Kurs, Jenkins</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git, GitHub, Jenkins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jira</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +201,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -260,223 +374,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -510,7 +564,107 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,16 +696,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tagesPlan11_09_23" displayName="tagesPlan11_09_23" ref="A1:G5" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tagesPlan11_09_23" displayName="tagesPlan11_09_23" ref="A1:G5" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
-    <tableColumn id="15" uniqueName="15" name="Kapitän" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="16" uniqueName="16" name="Vorname Nachname" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="17" uniqueName="17" name="Stand Up Datum" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="18" uniqueName="18" name="Intakevorbereitungen" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="19" uniqueName="19" name="Intake Übungslaufe mit" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="20" uniqueName="20" name="Zerfizierung und Deadline" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="21" uniqueName="21" name="Sonnstiges" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="15" uniqueName="15" name="Kapitän" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="16" uniqueName="16" name="Vorname Nachname" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="17" uniqueName="17" name="Stand Up Datum" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="18" uniqueName="18" name="Intakevorbereitungen" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="19" uniqueName="19" name="Intake Übungslaufe mit" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="20" uniqueName="20" name="Zerfizierung und Deadline" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="21" uniqueName="21" name="Sonnstiges" queryTableFieldId="7" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,7 +980,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -836,140 +990,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45180</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45180</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10">
         <v>45180</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10">
         <v>45180</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45180</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11">
-        <v>45180</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
